--- a/Final Data/Item Names and Info.xlsx
+++ b/Final Data/Item Names and Info.xlsx
@@ -387,7 +387,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>INFERRED_OVERALL</t>
+          <t>iTotal</t>
         </is>
       </c>
     </row>
